--- a/开支收入/工资表.xlsx
+++ b/开支收入/工资表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>11月份工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>吴晓宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,16 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,7 +425,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,42 +438,48 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/开支收入/工资表.xlsx
+++ b/开支收入/工资表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>11月份工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月份工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,17 +426,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -470,19 +474,60 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C10" s="1">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
